--- a/medicine/Enfance/Nadine_Suarès/Nadine_Suarès.xlsx
+++ b/medicine/Enfance/Nadine_Suarès/Nadine_Suarès.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Nadine_Suar%C3%A8s</t>
+          <t>Nadine_Suarès</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Nadine Suarès (née Nadine Tilche à Alexandrie en Égypte le 10 mars 1893[1]) est une psychologue française, spécialiste de l'enfance et de l'adolescence, notamment sous l'aspect de la vie scolaire.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Nadine Suarès (née Nadine Tilche à Alexandrie en Égypte le 10 mars 1893) est une psychologue française, spécialiste de l'enfance et de l'adolescence, notamment sous l'aspect de la vie scolaire.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Nadine_Suar%C3%A8s</t>
+          <t>Nadine_Suarès</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,11 +523,13 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Nadine Suarès fait des études secondaires à Lyon et devient la première bachelière égyptienne[2],[3].
-Elle est titulaire d'un doctorat obtenu à l'Institut Jean-Jacques Rousseau, à Genève (Suisse)[4]. Elle dirige un lycée de 1942 à 1949[5].
-Elle publie des articles et des ouvrages en rapport avec son activité professionnelle[6].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Nadine Suarès fait des études secondaires à Lyon et devient la première bachelière égyptienne,.
+Elle est titulaire d'un doctorat obtenu à l'Institut Jean-Jacques Rousseau, à Genève (Suisse). Elle dirige un lycée de 1942 à 1949.
+Elle publie des articles et des ouvrages en rapport avec son activité professionnelle.
 Nadine Suarès est la femme de Carlo Suares et a deux enfants; Bernard Robert Suares et Maya Suares.
 </t>
         </is>
